--- a/biology/Microbiologie/Gemmatimonadota/Gemmatimonadota.xlsx
+++ b/biology/Microbiologie/Gemmatimonadota/Gemmatimonadota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gemmatimonadota sont un embranchement (ou division, ou phylum) du règne des Bacteria. Son nom provient de Gemmatimonas qui est le genre type de cet embranchement.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet embranchement est proposé dès 2003 par H. Zhang et al. pour recevoir l'espèce Gemmatimonas aurantiaca isolée d'un réacteur destiné à la récupération du phosphore dans des eaux usées[2]. Ce n'est qu'en 2021 qu'il est publié de manière valide par Oren et Garrity[1] après un renommage conforme au code de nomenclature bactérienne (le nom de l'embranchement devant être dérivé de celui de son genre type, en l'occurrence Gemmatimonas, par adjonction du suffixe -ota conformément à une décision de l'ICSP en 2021[3]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet embranchement est proposé dès 2003 par H. Zhang et al. pour recevoir l'espèce Gemmatimonas aurantiaca isolée d'un réacteur destiné à la récupération du phosphore dans des eaux usées. Ce n'est qu'en 2021 qu'il est publié de manière valide par Oren et Garrity après un renommage conforme au code de nomenclature bactérienne (le nom de l'embranchement devant être dérivé de celui de son genre type, en l'occurrence Gemmatimonas, par adjonction du suffixe -ota conformément à une décision de l'ICSP en 2021).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste de classes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (19 novembre 2022)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (19 novembre 2022) :
 Gemmatimonadetes Zhang et al. 2003
 Longimicrobiia corrig. Pascual et al. 2016</t>
         </is>
